--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T17:47:22-03:00</t>
+    <t>2024-09-09T18:39:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:39:42-03:00</t>
+    <t>2024-09-10T08:50:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T08:50:18-03:00</t>
+    <t>2025-02-21T13:43:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1469,9 +1469,6 @@
     &lt;code value="11450-4"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
     <t>Composition.section:sectionDiagnosticos.author</t>
@@ -9760,13 +9757,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>78</v>
@@ -9814,9 +9811,7 @@
       <c r="X67" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
         <v>406</v>
       </c>
@@ -9868,7 +9863,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>407</v>
@@ -9985,7 +9980,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>411</v>
@@ -10102,7 +10097,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>416</v>
@@ -10219,7 +10214,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>422</v>
@@ -10338,7 +10333,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>430</v>
@@ -10457,7 +10452,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>438</v>
@@ -10483,10 +10478,10 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>440</v>
@@ -10574,7 +10569,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>445</v>
@@ -10693,7 +10688,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>453</v>
@@ -10810,13 +10805,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>384</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -10841,10 +10836,10 @@
         <v>285</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10927,7 +10922,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>392</v>
@@ -11042,7 +11037,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>393</v>
@@ -11159,7 +11154,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>394</v>
@@ -11278,7 +11273,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>395</v>
@@ -11397,7 +11392,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>401</v>
@@ -11408,13 +11403,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11445,7 +11440,7 @@
         <v>78</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>78</v>
@@ -11462,9 +11457,7 @@
       <c r="X81" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
         <v>406</v>
       </c>
@@ -11516,7 +11509,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>407</v>
@@ -11633,7 +11626,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>411</v>
@@ -11750,7 +11743,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>416</v>
@@ -11867,7 +11860,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>422</v>
@@ -11986,7 +11979,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>430</v>
@@ -12105,7 +12098,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>438</v>
@@ -12131,10 +12124,10 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>440</v>
@@ -12222,7 +12215,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>445</v>
@@ -12341,7 +12334,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>453</v>
@@ -12458,13 +12451,13 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>384</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
@@ -12489,10 +12482,10 @@
         <v>285</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12575,7 +12568,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>392</v>
@@ -12690,7 +12683,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>393</v>
@@ -12807,7 +12800,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>394</v>
@@ -12926,7 +12919,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>395</v>
@@ -13045,7 +13038,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>401</v>
@@ -13056,13 +13049,13 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
@@ -13093,7 +13086,7 @@
         <v>78</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>78</v>
@@ -13110,9 +13103,7 @@
       <c r="X95" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
         <v>406</v>
       </c>
@@ -13164,7 +13155,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>407</v>
@@ -13281,7 +13272,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>411</v>
@@ -13398,7 +13389,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>416</v>
@@ -13515,7 +13506,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>422</v>
@@ -13634,7 +13625,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>430</v>
@@ -13753,7 +13744,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>438</v>
@@ -13779,10 +13770,10 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>440</v>
@@ -13870,7 +13861,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>445</v>
@@ -13989,7 +13980,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>453</v>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:43:19-03:00</t>
+    <t>2025-03-20T08:51:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T08:51:13-03:00</t>
+    <t>2025-03-24T09:32:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -567,6 +567,9 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
+    <t>Type of a composition.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
   </si>
   <si>
@@ -583,6 +586,193 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Composition.type.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Composition.type.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Composition.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.id</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>https://www.minsalud.gov.co/ihc/fhir/ValueSet/ConjuntoDocumentosVS</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Composition.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Composition.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Composition.category</t>
@@ -649,36 +839,7 @@
     <t>Composition.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Composition.subject.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Composition.subject.reference</t>
@@ -1951,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3483,9 +3644,11 @@
       <c r="X13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y13" s="2"/>
+      <c r="Y13" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3518,27 +3681,27 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3549,7 +3712,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3558,23 +3721,19 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>187</v>
       </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3598,102 +3757,100 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3729,16 +3886,16 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>194</v>
@@ -3747,36 +3904,36 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3787,7 +3944,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3796,19 +3953,23 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3856,25 +4017,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3888,21 +4049,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3914,17 +4075,15 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3961,31 +4120,31 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4005,42 +4164,42 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4078,37 +4237,37 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4122,10 +4281,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4151,15 +4310,17 @@
         <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4183,13 +4344,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4207,7 +4368,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4225,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4239,10 +4400,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4265,16 +4426,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4324,7 +4485,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4342,7 +4503,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4356,10 +4517,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4367,7 +4528,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4382,18 +4543,18 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4417,13 +4578,11 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4441,7 +4600,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4459,7 +4618,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4473,10 +4632,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4499,17 +4658,17 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4558,7 +4717,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4573,27 +4732,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4601,13 +4760,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -4616,19 +4775,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4677,10 +4836,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>91</v>
@@ -4692,27 +4851,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4720,13 +4879,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
@@ -4735,17 +4894,19 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4794,13 +4955,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4809,27 +4970,27 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4837,13 +4998,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -4852,18 +5013,20 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4887,13 +5050,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4911,13 +5074,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4926,27 +5089,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4954,13 +5117,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4969,18 +5132,20 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5004,13 +5169,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5028,7 +5193,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5046,24 +5211,24 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5074,7 +5239,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5086,20 +5251,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5147,31 +5308,31 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5179,21 +5340,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5205,15 +5366,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5250,31 +5413,31 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5294,42 +5457,42 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5379,25 +5542,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5411,46 +5574,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5474,13 +5635,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5498,19 +5659,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5530,10 +5691,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5541,7 +5702,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
@@ -5553,21 +5714,21 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5591,13 +5752,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5615,10 +5776,10 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>91</v>
@@ -5633,10 +5794,10 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5647,10 +5808,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5670,21 +5831,21 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5732,7 +5893,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5750,10 +5911,10 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5764,10 +5925,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5787,20 +5948,20 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5849,7 +6010,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5864,27 +6025,27 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5907,19 +6068,19 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5968,10 +6129,10 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>91</v>
@@ -5983,27 +6144,27 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6011,33 +6172,33 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6085,10 +6246,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -6100,27 +6261,27 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6128,30 +6289,32 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6200,10 +6363,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>91</v>
@@ -6212,19 +6375,19 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6232,21 +6395,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6255,19 +6418,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6293,13 +6456,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6317,31 +6480,31 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6349,14 +6512,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6369,25 +6532,25 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6436,7 +6599,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6448,19 +6611,19 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6468,10 +6631,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6479,7 +6642,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -6494,17 +6657,15 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6529,13 +6690,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6553,10 +6714,10 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>91</v>
@@ -6565,19 +6726,19 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>168</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6585,21 +6746,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6611,15 +6772,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>138</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6668,31 +6831,31 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6700,14 +6863,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6720,25 +6883,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6950,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6799,19 +6962,19 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6819,10 +6982,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6830,7 +6993,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
@@ -6845,16 +7008,18 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6878,13 +7043,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6902,10 +7067,10 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>91</v>
@@ -6914,16 +7079,16 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>168</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6934,21 +7099,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6960,18 +7125,18 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7019,28 +7184,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>213</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7051,45 +7216,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7138,42 +7301,42 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>134</v>
+        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7181,13 +7344,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
@@ -7196,18 +7359,20 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7231,13 +7396,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7255,13 +7420,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7273,13 +7438,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7287,10 +7452,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7301,7 +7466,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7310,18 +7475,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7370,13 +7537,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7388,13 +7555,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7402,10 +7569,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7416,7 +7583,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7425,16 +7592,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7485,28 +7652,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>188</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7517,24 +7684,24 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7543,15 +7710,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7588,17 +7757,19 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7610,16 +7781,16 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>389</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7637,35 +7808,39 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7713,25 +7888,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>207</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7752,14 +7927,14 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7771,16 +7946,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7806,13 +7981,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7830,31 +8005,31 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>168</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7862,46 +8037,42 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7949,31 +8120,31 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>299</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7981,21 +8152,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8004,22 +8175,22 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8068,13 +8239,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8086,13 +8257,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8100,10 +8271,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8111,13 +8282,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8126,20 +8297,16 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8163,30 +8330,32 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y53" s="2"/>
-      <c r="Z53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8197,16 +8366,16 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8217,14 +8386,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8243,18 +8412,18 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8302,7 +8471,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>194</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8314,64 +8483,66 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8419,28 +8590,28 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8451,10 +8622,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8465,7 +8636,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8474,19 +8645,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8512,13 +8683,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8536,16 +8707,16 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -8554,13 +8725,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8568,10 +8739,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8591,23 +8762,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8631,31 +8798,31 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8673,24 +8840,24 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8701,7 +8868,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8710,23 +8877,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8750,13 +8913,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8774,13 +8937,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8792,7 +8955,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>168</v>
@@ -8806,10 +8969,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8817,13 +8980,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -8832,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>439</v>
@@ -8840,9 +9003,7 @@
       <c r="M59" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8879,19 +9040,17 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8900,10 +9059,10 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8949,20 +9108,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8986,13 +9141,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9010,7 +9165,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9019,19 +9174,19 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9042,14 +9197,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9068,16 +9223,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9127,7 +9282,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9136,19 +9291,19 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9159,44 +9314,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I62" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9244,7 +9401,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9256,16 +9413,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>389</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9276,14 +9433,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9302,16 +9459,20 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9359,7 +9520,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>207</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9371,16 +9532,16 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9391,24 +9552,24 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9417,18 +9578,20 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9452,13 +9615,11 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9476,28 +9637,28 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9508,14 +9669,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9528,25 +9689,23 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
+        <v>462</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9595,7 +9754,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>299</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9607,44 +9766,44 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>78</v>
@@ -9653,20 +9812,18 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9714,7 +9871,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9732,10 +9889,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9746,10 +9903,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9757,13 +9914,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>78</v>
@@ -9772,20 +9929,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9794,7 +9949,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -9809,11 +9964,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9831,7 +9988,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9840,7 +9997,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -9849,10 +10006,10 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9863,10 +10020,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9877,7 +10034,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9889,17 +10046,19 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9924,13 +10083,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9948,13 +10107,13 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -9966,24 +10125,24 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>265</v>
+        <v>482</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10006,18 +10165,20 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10041,13 +10202,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10065,7 +10226,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10083,10 +10244,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10097,10 +10258,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10111,7 +10272,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10123,16 +10284,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10182,16 +10343,16 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10200,10 +10361,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10214,10 +10375,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10240,19 +10401,19 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>425</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10277,13 +10438,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10301,7 +10462,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10310,7 +10471,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -10319,7 +10480,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>168</v>
@@ -10328,15 +10489,15 @@
         <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10347,7 +10508,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10359,20 +10520,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10396,13 +10555,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10420,16 +10579,16 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -10438,10 +10597,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10452,12 +10611,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10466,7 +10627,7 @@
         <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>92</v>
@@ -10478,17 +10639,15 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10537,7 +10696,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10546,10 +10705,10 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10569,7 +10728,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>445</v>
@@ -10595,20 +10754,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10632,13 +10787,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10656,7 +10811,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10665,19 +10820,19 @@
         <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10688,14 +10843,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10714,16 +10869,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10773,7 +10928,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10782,19 +10937,19 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10805,44 +10960,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10890,7 +11047,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10902,16 +11059,16 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>389</v>
+        <v>142</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10922,24 +11079,24 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>78</v>
@@ -10948,16 +11105,20 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11005,7 +11166,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>207</v>
+        <v>448</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11017,16 +11178,16 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11037,24 +11198,24 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>78</v>
@@ -11063,18 +11224,20 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11083,7 +11246,7 @@
         <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>78</v>
@@ -11098,13 +11261,11 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11122,28 +11283,28 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11154,14 +11315,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11174,25 +11335,23 @@
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>297</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11241,7 +11400,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>299</v>
+        <v>460</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11253,44 +11412,44 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>78</v>
@@ -11299,20 +11458,18 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11360,7 +11517,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11378,10 +11535,10 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11392,10 +11549,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11403,13 +11560,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11418,20 +11575,18 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11440,7 +11595,7 @@
         <v>78</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>78</v>
@@ -11455,11 +11610,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11477,7 +11634,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11486,7 +11643,7 @@
         <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>103</v>
@@ -11495,10 +11652,10 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11509,10 +11666,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11523,7 +11680,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11535,17 +11692,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11570,13 +11729,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11594,13 +11753,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11612,24 +11771,24 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>265</v>
+        <v>482</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11652,18 +11811,20 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11687,13 +11848,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11711,7 +11872,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11729,10 +11890,10 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11743,10 +11904,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11754,13 +11915,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>78</v>
@@ -11769,16 +11930,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>121</v>
+        <v>527</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11828,16 +11989,16 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -11846,10 +12007,10 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11860,10 +12021,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11886,19 +12047,19 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>425</v>
+        <v>501</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11923,13 +12084,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11947,7 +12108,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11956,7 +12117,7 @@
         <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>103</v>
@@ -11965,7 +12126,7 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>168</v>
@@ -11974,15 +12135,15 @@
         <v>78</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11993,7 +12154,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12005,20 +12166,18 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12042,13 +12201,13 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12066,16 +12225,16 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>103</v>
@@ -12084,10 +12243,10 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12098,21 +12257,23 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>92</v>
@@ -12124,17 +12285,15 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>494</v>
+        <v>338</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12183,7 +12342,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12192,10 +12351,10 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12215,7 +12374,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>445</v>
@@ -12241,20 +12400,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12278,13 +12433,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12302,7 +12457,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12311,19 +12466,19 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12334,14 +12489,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12360,16 +12515,16 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12419,7 +12574,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12428,19 +12583,19 @@
         <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12451,44 +12606,46 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12536,7 +12693,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12548,16 +12705,16 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>389</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12568,24 +12725,24 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>78</v>
@@ -12594,16 +12751,20 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12651,7 +12812,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>207</v>
+        <v>448</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12663,16 +12824,16 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12683,24 +12844,24 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>78</v>
@@ -12709,18 +12870,20 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12729,7 +12892,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12744,13 +12907,11 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -12768,28 +12929,28 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12800,14 +12961,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12820,25 +12981,23 @@
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>461</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>462</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12887,7 +13046,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>299</v>
+        <v>460</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12899,44 +13058,44 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>78</v>
@@ -12945,20 +13104,18 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13006,7 +13163,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13024,10 +13181,10 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13038,10 +13195,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13049,13 +13206,13 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
@@ -13064,20 +13221,18 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13086,7 +13241,7 @@
         <v>78</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>78</v>
@@ -13101,11 +13256,13 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y95" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z95" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13123,7 +13280,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13132,7 +13289,7 @@
         <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>103</v>
@@ -13141,10 +13298,10 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13155,10 +13312,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13169,7 +13326,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13181,17 +13338,19 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O96" t="s" s="2">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13216,13 +13375,13 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>78</v>
@@ -13240,13 +13399,13 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
@@ -13258,24 +13417,24 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>265</v>
+        <v>482</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13298,18 +13457,20 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13333,13 +13494,13 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13357,7 +13518,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13375,10 +13536,10 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>415</v>
+        <v>168</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13389,10 +13550,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13400,13 +13561,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>78</v>
@@ -13415,16 +13576,16 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>121</v>
+        <v>547</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>417</v>
+        <v>548</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13474,16 +13635,16 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>103</v>
@@ -13492,10 +13653,10 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13506,10 +13667,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13532,19 +13693,19 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>425</v>
+        <v>501</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13569,13 +13730,13 @@
         <v>78</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13593,7 +13754,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13602,7 +13763,7 @@
         <v>91</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>103</v>
@@ -13611,7 +13772,7 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>168</v>
@@ -13620,15 +13781,15 @@
         <v>78</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13639,7 +13800,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13651,20 +13812,18 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13688,13 +13847,13 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>78</v>
@@ -13712,16 +13871,16 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>103</v>
@@ -13730,10 +13889,10 @@
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13744,21 +13903,23 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>92</v>
@@ -13770,17 +13931,15 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -13829,7 +13988,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13838,10 +13997,10 @@
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13861,7 +14020,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>445</v>
@@ -13887,20 +14046,16 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13924,13 +14079,13 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -13948,7 +14103,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13957,19 +14112,19 @@
         <v>91</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>452</v>
+        <v>168</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -13980,14 +14135,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14006,16 +14161,16 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14065,7 +14220,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14074,29 +14229,1326 @@
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AK105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="O106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y106" s="2"/>
+      <c r="Z106" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO103">
+  <autoFilter ref="A1:AO114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14106,7 +15558,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:32:33-03:00</t>
+    <t>2025-03-24T16:25:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:25:06-03:00</t>
+    <t>2025-03-25T08:49:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T08:49:07-03:00</t>
+    <t>2025-04-08T14:01:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T14:01:09-03:00</t>
+    <t>2025-04-08T16:57:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T16:57:34-03:00</t>
+    <t>2025-04-10T19:36:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T19:36:54-03:00</t>
+    <t>2025-04-11T11:36:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-CompositionCo.xlsx
+++ b/docs/v043/StructureDefinition-CompositionCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:36:21-03:00</t>
+    <t>2025-04-11T11:51:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
